--- a/medicine/Enfance/La_Galère_engloutie/La_Galère_engloutie.xlsx
+++ b/medicine/Enfance/La_Galère_engloutie/La_Galère_engloutie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Gal%C3%A8re_engloutie</t>
+          <t>La_Galère_engloutie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Galère engloutie est le 2e roman de la série Bob Morane écrit par Henri Vernes et publié en 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Gal%C3%A8re_engloutie</t>
+          <t>La_Galère_engloutie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bob Morane : aventurier.
 Aristide Clairembart : archéologue qui a découvert entre autres jadis les vrais jardins suspendus de Sémiramis. Devient l'ami de Bob Morane et le retrouvera dans plusieurs aventures.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Gal%C3%A8re_engloutie</t>
+          <t>La_Galère_engloutie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob Morane et Frank Reeves (déjà rencontré dans La Vallée infernale) sont sur la piste d'une galère engloutie devant contenir, entre autres trésors, le sarcophage de la mystérieuse princesse égyptienne Nefraït. Malheureusement le trésor attise des convoitises et les deux hommes ne sont pas les seuls à le rechercher...
 C'est dans cette aventure qu'apparaît pour la première fois l'archéologue Aristide Clairembart que l'on retrouve dans de nombreuses autres romans de la série.
